--- a/Other/Tmp/Thu chi.xlsx
+++ b/Other/Tmp/Thu chi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>100x3</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Thu</t>
+  </si>
+  <si>
+    <t>In bien bao lan 3</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,27 +488,35 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f>SUM(B2:B3)</f>
         <v>700</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="G8">
-        <f>SUM(G2:G6)</f>
-        <v>537</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G9">
+        <f>SUM(G2:G7)</f>
+        <v>567</v>
+      </c>
+      <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="J8">
-        <f>B8-G8</f>
-        <v>163</v>
+      <c r="J9">
+        <f>B9-G9</f>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
